--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>268.231042928204</v>
+        <v>257.7697110307107</v>
       </c>
       <c r="R2">
-        <v>2414.079386353836</v>
+        <v>2319.927399276396</v>
       </c>
       <c r="S2">
-        <v>0.001053201334869148</v>
+        <v>0.001084424373151317</v>
       </c>
       <c r="T2">
-        <v>0.001053201334869148</v>
+        <v>0.001084424373151317</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
-        <v>1091.811501819727</v>
+        <v>1598.85958864961</v>
       </c>
       <c r="R3">
-        <v>9826.30351637754</v>
+        <v>14389.73629784649</v>
       </c>
       <c r="S3">
-        <v>0.004286965888022931</v>
+        <v>0.006726322888152505</v>
       </c>
       <c r="T3">
-        <v>0.004286965888022931</v>
+        <v>0.006726322888152505</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>358.5163851215964</v>
+        <v>640.2320281308466</v>
       </c>
       <c r="R4">
-        <v>3226.647466094368</v>
+        <v>5762.088253177621</v>
       </c>
       <c r="S4">
-        <v>0.001407704086971001</v>
+        <v>0.002693424347651432</v>
       </c>
       <c r="T4">
-        <v>0.001407704086971001</v>
+        <v>0.002693424347651432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>1270.726568001427</v>
+        <v>1521.280807916114</v>
       </c>
       <c r="R5">
-        <v>11436.53911201284</v>
+        <v>13691.52727124502</v>
       </c>
       <c r="S5">
-        <v>0.004989470655829414</v>
+        <v>0.006399952810262547</v>
       </c>
       <c r="T5">
-        <v>0.004989470655829415</v>
+        <v>0.006399952810262548</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>22007.97232310269</v>
+        <v>14442.42819512425</v>
       </c>
       <c r="R6">
-        <v>198071.7509079242</v>
+        <v>129981.8537561183</v>
       </c>
       <c r="S6">
-        <v>0.08641365881971824</v>
+        <v>0.06075857818847689</v>
       </c>
       <c r="T6">
-        <v>0.08641365881971824</v>
+        <v>0.06075857818847688</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
         <v>89581.56763579867</v>
@@ -883,10 +883,10 @@
         <v>806234.108722188</v>
       </c>
       <c r="S7">
-        <v>0.3517394019116106</v>
+        <v>0.3768652063150644</v>
       </c>
       <c r="T7">
-        <v>0.3517394019116106</v>
+        <v>0.3768652063150644</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>29415.75514526427</v>
+        <v>35871.18539849274</v>
       </c>
       <c r="R8">
-        <v>264741.7963073784</v>
+        <v>322840.6685864347</v>
       </c>
       <c r="S8">
-        <v>0.1155001011328461</v>
+        <v>0.1509082955651088</v>
       </c>
       <c r="T8">
-        <v>0.1155001011328461</v>
+        <v>0.1509082955651088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>104261.2921812044</v>
+        <v>85234.95155849191</v>
       </c>
       <c r="R9">
-        <v>938351.62963084</v>
+        <v>767114.5640264272</v>
       </c>
       <c r="S9">
-        <v>0.4093789104410951</v>
+        <v>0.358579208336034</v>
       </c>
       <c r="T9">
-        <v>0.4093789104410952</v>
+        <v>0.358579208336034</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>341.35612528051</v>
+        <v>329.8227623699956</v>
       </c>
       <c r="R10">
-        <v>3072.20512752459</v>
+        <v>2968.40486132996</v>
       </c>
       <c r="S10">
-        <v>0.001340324829245895</v>
+        <v>0.001387547981894218</v>
       </c>
       <c r="T10">
-        <v>0.001340324829245895</v>
+        <v>0.001387547981894218</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>1389.460890615983</v>
+        <v>2045.780646847767</v>
       </c>
       <c r="R11">
-        <v>12505.14801554385</v>
+        <v>18412.0258216299</v>
       </c>
       <c r="S11">
-        <v>0.005455677496422085</v>
+        <v>0.008606497585353132</v>
       </c>
       <c r="T11">
-        <v>0.005455677496422086</v>
+        <v>0.008606497585353132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>456.2550357284355</v>
+        <v>819.1928183940223</v>
       </c>
       <c r="R12">
-        <v>4106.29532155592</v>
+        <v>7372.735365546201</v>
       </c>
       <c r="S12">
-        <v>0.001791472036286939</v>
+        <v>0.003446303504879828</v>
       </c>
       <c r="T12">
-        <v>0.00179147203628694</v>
+        <v>0.003446303504879828</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>1617.151739070234</v>
+        <v>1946.516665596807</v>
       </c>
       <c r="R13">
-        <v>14554.3656516321</v>
+        <v>17518.64999037126</v>
       </c>
       <c r="S13">
-        <v>0.006349698944915249</v>
+        <v>0.008188898945799427</v>
       </c>
       <c r="T13">
-        <v>0.006349698944915251</v>
+        <v>0.008188898945799427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N14">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P14">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q14">
-        <v>235.233220379734</v>
+        <v>218.903477919438</v>
       </c>
       <c r="R14">
-        <v>2117.098983417606</v>
+        <v>1970.131301274942</v>
       </c>
       <c r="S14">
-        <v>0.0009236363509790242</v>
+        <v>0.0009209160605962269</v>
       </c>
       <c r="T14">
-        <v>0.0009236363509790243</v>
+        <v>0.0009209160605962266</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P15">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q15">
-        <v>957.4966894843434</v>
+        <v>1357.785300921345</v>
       </c>
       <c r="R15">
-        <v>8617.47020535909</v>
+        <v>12220.06770829211</v>
       </c>
       <c r="S15">
-        <v>0.003759582710818536</v>
+        <v>0.00571213533171971</v>
       </c>
       <c r="T15">
-        <v>0.003759582710818537</v>
+        <v>0.00571213533171971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N16">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P16">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q16">
-        <v>314.4116464313475</v>
+        <v>543.69854810661</v>
       </c>
       <c r="R16">
-        <v>2829.704817882128</v>
+        <v>4893.286932959491</v>
       </c>
       <c r="S16">
-        <v>0.001234528122117976</v>
+        <v>0.002287312791158567</v>
       </c>
       <c r="T16">
-        <v>0.001234528122117976</v>
+        <v>0.002287312791158566</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N17">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P17">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q17">
-        <v>1114.401597778794</v>
+        <v>1291.903763298453</v>
       </c>
       <c r="R17">
-        <v>10029.61438000914</v>
+        <v>11627.13386968608</v>
       </c>
       <c r="S17">
-        <v>0.00437566523825168</v>
+        <v>0.005434974974696856</v>
       </c>
       <c r="T17">
-        <v>0.004375665238251682</v>
+        <v>0.005434974974696857</v>
       </c>
     </row>
   </sheetData>
